--- a/Testcase_template.xlsx
+++ b/Testcase_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SC313504_SQA\2564\Lab3_Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SQA-2024\SQA-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67412BA7-CA7C-4C3A-80D6-843823C6A849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario Summary" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,28 @@
     <sheet name="Requirements Tracability" sheetId="6" r:id="rId5"/>
     <sheet name="Test Summary Report" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
   <si>
     <t>Scenario ID</t>
   </si>
@@ -319,38 +331,110 @@
     <t>TC01</t>
   </si>
   <si>
-    <t>romanNum = I</t>
-  </si>
-  <si>
     <t>TC02</t>
   </si>
   <si>
-    <t>romanNum = J</t>
-  </si>
-  <si>
-    <t>ไม่แสดงผลลัพธ์</t>
-  </si>
-  <si>
-    <t>ใส่เลขโรมัน 1 หลัก (Single  digit roman numerals)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>รับค่า romanNum ที่มีหลักเดียว</t>
-  </si>
-  <si>
-    <t>แสดงผลลัพธ์ Integer ที่ตรงกับค่าที่รับมา เช่น I = 1</t>
+    <t>ตรวจสอบโปรโมชั่นตามความต้องการของร้าน</t>
+  </si>
+  <si>
+    <t>รับค่า total_cost = 500</t>
+  </si>
+  <si>
+    <t>รับค่า total_cost = 700</t>
+  </si>
+  <si>
+    <t>รับค่า total_cost = 1200</t>
+  </si>
+  <si>
+    <t>Free ice cream cone = 1</t>
+  </si>
+  <si>
+    <t>Free chocolate cake = 1</t>
+  </si>
+  <si>
+    <t>Free ice cream cone = 1 and Free chocolate cake = 1</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>TS002</t>
+  </si>
+  <si>
+    <t>Total_cost ไม่ถึงราคาขั้นต่ำของ promotion</t>
+  </si>
+  <si>
+    <t>รับค่า total_cost = 10</t>
+  </si>
+  <si>
+    <t>รับค่า total_cost = 200</t>
+  </si>
+  <si>
+    <t>รับค่า total_cost = 450</t>
+  </si>
+  <si>
+    <t>Thank you and see you next time</t>
+  </si>
+  <si>
+    <t>TS003</t>
+  </si>
+  <si>
+    <t>Total_cost เกิน promotion มากกว่า 2 โปรโมชั่น</t>
+  </si>
+  <si>
+    <t>รับค่า total_cost = 1000</t>
+  </si>
+  <si>
+    <t>รับค่า total_cost = 1400</t>
+  </si>
+  <si>
+    <t>รับค่า total_cost = 2400</t>
+  </si>
+  <si>
+    <t>Free chocolate cake = 2</t>
+  </si>
+  <si>
+    <t>Free ice cream cone = 2 and Free chocolate cake = 2</t>
+  </si>
+  <si>
+    <t>NOT PASS</t>
+  </si>
+  <si>
+    <t>LAB2</t>
+  </si>
+  <si>
+    <t>653380190-1</t>
+  </si>
+  <si>
+    <t>Jakkaphat Wongsriwan</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>Free ice cream cone = 2</t>
+  </si>
+  <si>
+    <t>Free ice cream cone = 2 and chocolate cake = 2</t>
+  </si>
+  <si>
+    <t>Free ice cream cone = 1 and chocolate cake = 1</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Test input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,18 +475,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="TH Sarabun New"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Cordia New"/>
       <family val="2"/>
       <charset val="222"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Sarabun"/>
     </font>
   </fonts>
   <fills count="10">
@@ -461,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -638,14 +745,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -664,9 +782,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,19 +792,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -712,24 +815,35 @@
     <xf numFmtId="14" fontId="3" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,19 +853,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,7 +913,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,7 +1039,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -939,12 +1053,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal 3 4" xfId="3"/>
-    <cellStyle name="Normal_ftest" xfId="1"/>
+    <cellStyle name="Normal 3 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_ftest" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -961,7 +1078,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
@@ -975,7 +1092,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1074,9 +1190,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1135,7 +1250,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2EF3-43F0-BF83-07B73B7D8256}"/>
             </c:ext>
@@ -1154,7 +1269,7 @@
         <c:overlap val="-90"/>
         <c:axId val="211657784"/>
         <c:axId val="211662272"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -1162,7 +1277,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$B$15</c15:sqref>
@@ -1222,7 +1337,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst>
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1243,7 +1358,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$16:$A$19</c15:sqref>
@@ -1269,7 +1384,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$B$16:$B$19</c15:sqref>
@@ -1282,7 +1397,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-2EF3-43F0-BF83-07B73B7D8256}"/>
                   </c:ext>
@@ -1295,7 +1410,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$C$15</c15:sqref>
@@ -1355,7 +1470,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1376,7 +1491,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$16:$A$19</c15:sqref>
@@ -1402,7 +1517,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$C$16:$C$19</c15:sqref>
@@ -1415,7 +1530,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2EF3-43F0-BF83-07B73B7D8256}"/>
                   </c:ext>
@@ -1428,7 +1543,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$D$15</c15:sqref>
@@ -1488,7 +1603,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1509,7 +1624,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$16:$A$19</c15:sqref>
@@ -1535,7 +1650,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$D$16:$D$19</c15:sqref>
@@ -1548,7 +1663,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-2EF3-43F0-BF83-07B73B7D8256}"/>
                   </c:ext>
@@ -1561,7 +1676,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$E$15</c15:sqref>
@@ -1621,7 +1736,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1642,7 +1757,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$16:$A$19</c15:sqref>
@@ -1668,7 +1783,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$E$16:$E$19</c15:sqref>
@@ -1681,7 +1796,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-2EF3-43F0-BF83-07B73B7D8256}"/>
                   </c:ext>
@@ -1694,7 +1809,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$G$15</c15:sqref>
@@ -1754,7 +1869,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1775,7 +1890,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$16:$A$19</c15:sqref>
@@ -1801,7 +1916,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$G$16:$G$19</c15:sqref>
@@ -1814,7 +1929,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-2EF3-43F0-BF83-07B73B7D8256}"/>
                   </c:ext>
@@ -1827,7 +1942,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$H$15</c15:sqref>
@@ -1889,7 +2004,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1910,7 +2025,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$16:$A$19</c15:sqref>
@@ -1936,7 +2051,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$H$16:$H$19</c15:sqref>
@@ -1949,7 +2064,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-2EF3-43F0-BF83-07B73B7D8256}"/>
                   </c:ext>
@@ -1962,7 +2077,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$I$15</c15:sqref>
@@ -2024,7 +2139,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2045,7 +2160,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$16:$A$19</c15:sqref>
@@ -2071,7 +2186,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$I$16:$I$19</c15:sqref>
@@ -2084,7 +2199,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-2EF3-43F0-BF83-07B73B7D8256}"/>
                   </c:ext>
@@ -2097,7 +2212,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$J$15</c15:sqref>
@@ -2159,7 +2274,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2180,7 +2295,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$16:$A$19</c15:sqref>
@@ -2206,7 +2321,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$J$16:$J$19</c15:sqref>
@@ -2219,7 +2334,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-2EF3-43F0-BF83-07B73B7D8256}"/>
                   </c:ext>
@@ -2319,7 +2434,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2387,7 +2501,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
@@ -2431,7 +2545,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2530,9 +2643,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2591,7 +2703,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C194-4132-A117-2C14BBA03CB6}"/>
             </c:ext>
@@ -2610,7 +2722,7 @@
         <c:overlap val="-90"/>
         <c:axId val="211778368"/>
         <c:axId val="211776736"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -2618,7 +2730,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$B$24</c15:sqref>
@@ -2678,7 +2790,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst>
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2699,7 +2811,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$25:$A$28</c15:sqref>
@@ -2725,7 +2837,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$B$25:$B$28</c15:sqref>
@@ -2738,7 +2850,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-C194-4132-A117-2C14BBA03CB6}"/>
                   </c:ext>
@@ -2751,7 +2863,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$C$24</c15:sqref>
@@ -2811,7 +2923,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2832,7 +2944,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$25:$A$28</c15:sqref>
@@ -2858,7 +2970,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$C$25:$C$28</c15:sqref>
@@ -2871,7 +2983,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-C194-4132-A117-2C14BBA03CB6}"/>
                   </c:ext>
@@ -2884,7 +2996,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$D$24</c15:sqref>
@@ -2944,7 +3056,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2965,7 +3077,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$25:$A$28</c15:sqref>
@@ -2991,7 +3103,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$D$25:$D$28</c15:sqref>
@@ -3004,7 +3116,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-C194-4132-A117-2C14BBA03CB6}"/>
                   </c:ext>
@@ -3017,7 +3129,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$E$24</c15:sqref>
@@ -3077,7 +3189,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3098,7 +3210,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$25:$A$28</c15:sqref>
@@ -3124,7 +3236,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$E$25:$E$28</c15:sqref>
@@ -3137,7 +3249,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C194-4132-A117-2C14BBA03CB6}"/>
                   </c:ext>
@@ -3150,7 +3262,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$G$24</c15:sqref>
@@ -3210,7 +3322,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3231,7 +3343,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$25:$A$28</c15:sqref>
@@ -3257,7 +3369,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$G$25:$G$28</c15:sqref>
@@ -3270,7 +3382,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-C194-4132-A117-2C14BBA03CB6}"/>
                   </c:ext>
@@ -3283,7 +3395,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$H$24</c15:sqref>
@@ -3345,7 +3457,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3366,7 +3478,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$25:$A$28</c15:sqref>
@@ -3392,7 +3504,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$H$25:$H$28</c15:sqref>
@@ -3405,7 +3517,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-C194-4132-A117-2C14BBA03CB6}"/>
                   </c:ext>
@@ -3418,7 +3530,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$I$24</c15:sqref>
@@ -3480,7 +3592,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3501,7 +3613,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$25:$A$28</c15:sqref>
@@ -3527,7 +3639,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$I$25:$I$28</c15:sqref>
@@ -3540,7 +3652,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-C194-4132-A117-2C14BBA03CB6}"/>
                   </c:ext>
@@ -3553,7 +3665,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$J$24</c15:sqref>
@@ -3615,7 +3727,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3636,7 +3748,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$25:$A$28</c15:sqref>
@@ -3662,7 +3774,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$J$25:$J$28</c15:sqref>
@@ -3675,7 +3787,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-C194-4132-A117-2C14BBA03CB6}"/>
                   </c:ext>
@@ -3688,7 +3800,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$K$24</c15:sqref>
@@ -3750,7 +3862,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3771,7 +3883,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$A$25:$A$28</c15:sqref>
@@ -3797,7 +3909,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Summary Report'!$K$25:$K$28</c15:sqref>
@@ -3810,7 +3922,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-C194-4132-A117-2C14BBA03CB6}"/>
                   </c:ext>
@@ -3910,7 +4022,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5122,7 +5233,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5152,7 +5269,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5432,19 +5555,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="8" width="13.44140625" style="4" customWidth="1"/>
@@ -5452,7 +5575,7 @@
     <col min="10" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:9" ht="42">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5481,24 +5604,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
       <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:9">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5509,7 +5644,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5520,7 +5655,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:9">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5531,7 +5666,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:9">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5542,18 +5677,18 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:9" ht="21">
+      <c r="A8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5562,8 +5697,8 @@
     <mergeCell ref="A8:C8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I3" location="'TS001'!A1" display="TS001"/>
-    <hyperlink ref="I8" location="'Test Summary Report'!A1" display="Test Summary Report"/>
+    <hyperlink ref="I3" location="'TS001'!A1" display="TS001" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I8" location="'Test Summary Report'!A1" display="Test Summary Report" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5571,14 +5706,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
@@ -5593,55 +5728,55 @@
     <col min="11" max="11" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:11" ht="42">
+      <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+    <row r="3" spans="1:11" ht="20.399999999999999">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5650,14 +5785,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.399999999999999"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="4" customWidth="1"/>
@@ -5671,101 +5804,247 @@
     <col min="10" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="49.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="63">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:9" ht="34.799999999999997">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="34.799999999999997">
+      <c r="A4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="26">
+        <v>2</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" ht="87.6">
+      <c r="A5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="26">
+        <v>3</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="F5" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" ht="52.2">
+      <c r="A6" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="26">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E6" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="26">
+        <v>2</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" ht="52.8">
+      <c r="A8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="26">
+        <v>3</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" ht="34.799999999999997">
+      <c r="A9" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="H9" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="1:9" ht="87">
+      <c r="A10" s="36"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="26">
+        <v>2</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="31"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="38"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="38"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+    <row r="11" spans="1:9" ht="87.6">
+      <c r="A11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="26">
+        <v>3</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5773,14 +6052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.399999999999999"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="4" customWidth="1"/>
@@ -5794,52 +6073,58 @@
     <col min="10" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:6" s="16" customFormat="1" ht="21">
+      <c r="A2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:6" ht="21">
+      <c r="A4" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="31" t="s">
+      <c r="B4" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="48"/>
+      <c r="E4" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="46"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:6" ht="21">
+      <c r="A5" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="31" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="E5" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="48"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:6" ht="21">
+      <c r="A6" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
     </row>
-    <row r="8" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" s="16" customFormat="1" ht="42">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5854,50 +6139,68 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:6" ht="61.2">
+      <c r="A9" s="41" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="122.4">
+      <c r="A10" s="42"/>
+      <c r="B10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C10" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A10" s="44"/>
-      <c r="B10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+    <row r="11" spans="1:6" ht="122.4">
+      <c r="A11" s="42"/>
+      <c r="B11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A11" s="44"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A12" s="45"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="43"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -5915,20 +6218,21 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.399999999999999"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="41.33203125" style="4" customWidth="1"/>
@@ -5936,30 +6240,30 @@
     <col min="4" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:3" ht="21">
+      <c r="A2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:3" ht="61.2">
+      <c r="A3" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="49.2" x14ac:dyDescent="0.7">
-      <c r="A4" s="53"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="15" t="s">
+    <row r="4" spans="1:3" ht="61.2">
+      <c r="A4" s="51"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5973,14 +6277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:AD37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D34" sqref="D34:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.399999999999999"/>
   <cols>
     <col min="1" max="4" width="9.109375" style="4"/>
     <col min="5" max="5" width="14" style="4" customWidth="1"/>
@@ -5993,900 +6297,900 @@
     <col min="24" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.7">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:30" ht="21">
+      <c r="A2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:30" ht="24" customHeight="1">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="26" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="57">
+      <c r="J3" s="55">
         <v>1</v>
       </c>
-      <c r="K3" s="57"/>
+      <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:30" ht="24" customHeight="1">
+      <c r="A4" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="M4" s="77" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="M4" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.7">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:30">
+      <c r="A5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="56" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="97"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="95"/>
     </row>
-    <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:30" ht="24" customHeight="1">
+      <c r="A6" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="56" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="100"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="98"/>
     </row>
-    <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="56" t="s">
+    <row r="7" spans="1:30" ht="24" customHeight="1">
+      <c r="A7" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="50"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="100"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="48"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="98"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.7">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:30">
+      <c r="A8" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="100"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="98"/>
     </row>
-    <row r="9" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:30" ht="24" customHeight="1">
+      <c r="A9" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="49">
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="47">
         <v>1</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="50"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="100"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="48"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="98"/>
     </row>
-    <row r="10" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="49">
+    <row r="10" spans="1:30" ht="24" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="47">
         <v>2</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="50"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="100"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="48"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="98"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.7">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:30">
+      <c r="A11" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="50"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="100"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="48"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="98"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.7">
-      <c r="M12" s="98"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="100"/>
+    <row r="12" spans="1:30">
+      <c r="M12" s="96"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="98"/>
     </row>
-    <row r="13" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:30" ht="24" customHeight="1">
+      <c r="A13" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="100"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="98"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.7">
-      <c r="A14" s="51" t="s">
+    <row r="14" spans="1:30" ht="21">
+      <c r="A14" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="98"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="100"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="98"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.7">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="74" t="s">
+    <row r="15" spans="1:30" ht="21">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="30"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="100"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="23"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="98"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.7">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:30" ht="21">
+      <c r="A16" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="46">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="44">
         <v>0</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
       <c r="K16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="101"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="102"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="100"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:23" ht="21">
+      <c r="A17" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="46">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="44">
         <v>0</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
       <c r="K17" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A18" s="71" t="s">
+    <row r="18" spans="1:23" ht="21">
+      <c r="A18" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="46">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="44">
         <v>0</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A19" s="71" t="s">
+    <row r="19" spans="1:23" ht="21">
+      <c r="A19" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="46">
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="44">
         <v>0</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A20" s="76" t="s">
+    <row r="20" spans="1:23" ht="21">
+      <c r="A20" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75">
         <f>SUM(F16:J19)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="18" t="s">
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:23" ht="21">
+      <c r="A22" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:23" ht="21">
+      <c r="A23" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="M23" s="82" t="s">
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="M23" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="84"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="82"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="77" t="s">
+    <row r="24" spans="1:23" ht="21">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="M24" s="74" t="s">
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="M24" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="N24" s="85"/>
-      <c r="O24" s="77" t="s">
+      <c r="N24" s="83"/>
+      <c r="O24" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77" t="s">
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A25" s="79" t="s">
+    <row r="25" spans="1:23">
+      <c r="A25" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="46">
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="44">
         <v>0</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="M25" s="46">
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="M25" s="44">
         <v>1</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="46" t="s">
+      <c r="N25" s="46"/>
+      <c r="O25" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="49" t="s">
+      <c r="P25" s="46"/>
+      <c r="Q25" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="50"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="48"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A26" s="79" t="s">
+    <row r="26" spans="1:23">
+      <c r="A26" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="46">
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="44">
         <v>0</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-      <c r="M26" s="46">
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="M26" s="44">
         <v>2</v>
       </c>
-      <c r="N26" s="48"/>
-      <c r="O26" s="46" t="s">
+      <c r="N26" s="46"/>
+      <c r="O26" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="49" t="s">
+      <c r="P26" s="46"/>
+      <c r="Q26" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="50"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="48"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A27" s="79" t="s">
+    <row r="27" spans="1:23">
+      <c r="A27" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="46">
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="44">
         <v>0</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="M27" s="46">
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="M27" s="44">
         <v>3</v>
       </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="46" t="s">
+      <c r="N27" s="46"/>
+      <c r="O27" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="49" t="s">
+      <c r="P27" s="46"/>
+      <c r="Q27" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="50"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="48"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A28" s="79" t="s">
+    <row r="28" spans="1:23">
+      <c r="A28" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="46">
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="44">
         <v>0</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="M28" s="46">
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
+      <c r="M28" s="44">
         <v>4</v>
       </c>
-      <c r="N28" s="48"/>
-      <c r="O28" s="46" t="s">
+      <c r="N28" s="46"/>
+      <c r="O28" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="49" t="s">
+      <c r="P28" s="46"/>
+      <c r="Q28" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="50"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="48"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A29" s="29" t="s">
+    <row r="29" spans="1:23">
+      <c r="A29" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="48"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A31" s="62" t="s">
+    <row r="31" spans="1:23" ht="21">
+      <c r="A31" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.7">
-      <c r="A32" s="71" t="s">
+    <row r="32" spans="1:23" ht="21">
+      <c r="A32" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="61" t="s">
+      <c r="B32" s="70"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="61"/>
+      <c r="K32" s="59"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:11" ht="21">
+      <c r="A33" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="61" t="s">
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="61"/>
+      <c r="K33" s="59"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A34" s="71" t="s">
+    <row r="34" spans="1:11" ht="21">
+      <c r="A34" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="61" t="s">
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="61"/>
+      <c r="K34" s="59"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:11" ht="21">
+      <c r="A35" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="61" t="s">
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="61"/>
+      <c r="K35" s="59"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A36" s="89" t="s">
+    <row r="36" spans="1:11" ht="21">
+      <c r="A36" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="103" t="s">
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="103"/>
+      <c r="K36" s="101"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A37" s="89" t="s">
+    <row r="37" spans="1:11" ht="21">
+      <c r="A37" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="92" t="s">
+      <c r="B37" s="88"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="K37" s="93"/>
+      <c r="K37" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="88">
